--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vladyslav-Rashkovan_Flash_Russian.pdf</t>
+          <t>Verenysh Roman Hogan Flash.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -725,7 +725,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -869,7 +869,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2394,7 +2394,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Verenysh Roman Hogan Flash.pdf</t>
+          <t>Vladyslav-Rashkovan_Flash_Russian.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
